--- a/checkoutForm.xlsx
+++ b/checkoutForm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="260">
   <si>
     <t>CHECKOUT CODE</t>
   </si>
@@ -782,6 +782,21 @@
   </si>
   <si>
     <t>LT-E6520-10</t>
+  </si>
+  <si>
+    <t>NEC LCD Projector</t>
+  </si>
+  <si>
+    <t>$945.00</t>
+  </si>
+  <si>
+    <t>CCE 20</t>
+  </si>
+  <si>
+    <t>CCE 09</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
   </si>
 </sst>
 </file>
@@ -1633,13 +1648,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>204</v>
@@ -1648,47 +1663,47 @@
         <v>204</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1804,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -1828,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">

--- a/checkoutForm.xlsx
+++ b/checkoutForm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="251">
   <si>
     <t>CHECKOUT CODE</t>
   </si>
@@ -682,34 +682,58 @@
     <t>Ricky A. Martinez</t>
   </si>
   <si>
-    <t>05/10/2016</t>
-  </si>
-  <si>
-    <t>Room Service</t>
-  </si>
-  <si>
-    <t>Robert Thomas</t>
+    <t>CHECKOUT DATE:</t>
+  </si>
+  <si>
+    <t>CCE 21</t>
+  </si>
+  <si>
+    <t>dddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddfffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffsssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssss</t>
+  </si>
+  <si>
+    <t>CCE 20</t>
+  </si>
+  <si>
+    <t>CCE 08</t>
+  </si>
+  <si>
+    <t>Kristine Howes</t>
   </si>
   <si>
     <t>Ricky Martinez</t>
   </si>
   <si>
-    <t>05/09/2016</t>
-  </si>
-  <si>
-    <t>05/11/2016</t>
-  </si>
-  <si>
-    <t>Extension Programs Instructor Meet and Greet</t>
-  </si>
-  <si>
-    <t>Tiffany Tsang</t>
-  </si>
-  <si>
-    <t>05/18/2016</t>
-  </si>
-  <si>
-    <t>05/19/2016</t>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>LONGTERM</t>
+  </si>
+  <si>
+    <t>CCE Hotspot 18</t>
+  </si>
+  <si>
+    <t>Verizon MiFi</t>
+  </si>
+  <si>
+    <t>CDPH/CPSP Orientation Training</t>
+  </si>
+  <si>
+    <t>Michelle Craven</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>PT-E6430-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon Printer </t>
+  </si>
+  <si>
+    <t>$200.00</t>
   </si>
   <si>
     <t>Dell Notebook Computer</t>
@@ -718,34 +742,34 @@
     <t>$1500.00</t>
   </si>
   <si>
-    <t>Project Procurement Management</t>
-  </si>
-  <si>
-    <t>Crystal Sims</t>
-  </si>
-  <si>
-    <t>05/16/2016</t>
-  </si>
-  <si>
-    <t>05/20/2016</t>
-  </si>
-  <si>
-    <t>safd</t>
-  </si>
-  <si>
-    <t>Esteban Heredia</t>
-  </si>
-  <si>
-    <t>Jonathan Lok</t>
-  </si>
-  <si>
-    <t>05/13/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon Printer </t>
-  </si>
-  <si>
-    <t>$200.00</t>
+    <t>Apple iPhone 5 16GB</t>
+  </si>
+  <si>
+    <t>F17L75V9F8H2</t>
+  </si>
+  <si>
+    <t>IMEI:990002809939745</t>
+  </si>
+  <si>
+    <t>$600.00</t>
+  </si>
+  <si>
+    <t>Cal FIRE SFT Labor/Management Relations</t>
+  </si>
+  <si>
+    <t>Stephanie Salcedo</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>InFocus LCD Projector</t>
+  </si>
+  <si>
+    <t>$1000.00</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1127,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1521,7 +1543,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1594,62 +1616,62 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1713,43 +1735,27 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>15</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -1765,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
@@ -1773,7 +1779,7 @@
         <v>217</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
@@ -1847,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>

--- a/checkoutForm.xlsx
+++ b/checkoutForm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="265">
   <si>
     <t>CHECKOUT CODE</t>
   </si>
@@ -770,6 +770,48 @@
   </si>
   <si>
     <t>$1000.00</t>
+  </si>
+  <si>
+    <t>Cal Fire</t>
+  </si>
+  <si>
+    <t>Jim Younkin</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Jonathan Lok</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>CCE-Hotspot-22</t>
+  </si>
+  <si>
+    <t>Verizon Hotspot</t>
+  </si>
+  <si>
+    <t>sdafl</t>
+  </si>
+  <si>
+    <t>lkjsdf</t>
+  </si>
+  <si>
+    <t>sdlfkjs</t>
+  </si>
+  <si>
+    <t>$60.00</t>
   </si>
 </sst>
 </file>
@@ -1616,62 +1658,62 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1755,7 +1797,7 @@
         <v>221</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -1771,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
@@ -1779,7 +1821,7 @@
         <v>217</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
@@ -1853,7 +1895,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
